--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-476022.7658663081</v>
+        <v>-478828.2806097511</v>
       </c>
     </row>
     <row r="7">
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.02288557812537</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>58.58442069852281</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>78.70870113465206</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>146.5840649587253</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>18.0562787691015</v>
       </c>
       <c r="G5" t="n">
-        <v>189.5599602997968</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.94338340120333</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>135.0393428231427</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>176.2506339809152</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>115.2903961092229</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>47.19644401047213</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>67.68378409673949</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113369</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389245</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>54.3264904208971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>106.3434154283418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.890337106877052</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>46.29306638367346</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652468</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545307</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1157.367208492925</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>1157.367208492925</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>799.1015098861748</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2681.974459121126</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2505.796971435296</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2505.796971435296</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="U2" t="n">
-        <v>2252.035186073388</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.972298729817</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.972298729817</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X2" t="n">
-        <v>1547.506540468737</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1157.367208492925</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
         <v>190.2718927217162</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X4" t="n">
-        <v>580.0642721269139</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.118241157406</v>
+        <v>1310.819698479011</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.852542550656</v>
+        <v>952.5539998722602</v>
       </c>
       <c r="E5" t="n">
-        <v>1137.064289952412</v>
+        <v>566.7657472740159</v>
       </c>
       <c r="F5" t="n">
-        <v>726.0783851628041</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>348.0202652891861</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>348.0202652891861</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>348.0202652891861</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817.9898114977311</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1845.464683965246</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2392.625888732324</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2519.118147603157</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2265.426444348308</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1934.363557004737</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1581.594901734623</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.129143473543</v>
+        <v>1272.156000349356</v>
       </c>
       <c r="Y8" t="n">
-        <v>817.9898114977311</v>
+        <v>882.0166683735445</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>2030.071016909819</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2592.127727123976</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>344.2423377877939</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>344.2423377877939</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>344.2423377877939</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1006.204487511555</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>780.5752908239205</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>780.5752908239205</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="V10" t="n">
-        <v>525.8908026180336</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W10" t="n">
-        <v>525.8908026180336</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X10" t="n">
-        <v>525.8908026180336</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y10" t="n">
-        <v>525.8908026180336</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5361,22 +5361,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.547769317909</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900021</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776664</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>295.5818533952732</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>148.6919058973629</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,31 +5434,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5467,19 +5467,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>853.5941094450251</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>703.4774700326893</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>555.5643764502962</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>408.6744289523858</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>241.4783296672658</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>99.76649850946384</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.960887244719</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>282.2891673205955</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>140.5773361627936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6643,16 +6643,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
         <v>1491.508541327549</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6880,10 +6880,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,7 +7084,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7163,25 +7163,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345465</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384008</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7609,10 +7609,10 @@
         <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,16 +7807,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380721</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>160.4088454694717</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>306.1979795936943</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>21.63976862165693</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>290.9448912860318</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.45551699668633</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>157.863899659135</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>303.2427111875572</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>32.89260457060044</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856637</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.09054721822741</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>75.37549921168848</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.97276993489207</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>126.9182872993603</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.200817223434569e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1155063.456278357</v>
+        <v>1155063.456278358</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758989</v>
+        <v>229059.6437758988</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
@@ -26332,7 +26332,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26347,13 +26347,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.413517661587884e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363194</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682706</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977622</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-587342.1283177399</v>
+        <v>-587632.7354825858</v>
       </c>
       <c r="C6" t="n">
         <v>-25942.91832055067</v>
@@ -26528,40 +26528,40 @@
         <v>-181746.7244143455</v>
       </c>
       <c r="E6" t="n">
-        <v>-615530.1128721443</v>
+        <v>-615564.8507975801</v>
       </c>
       <c r="F6" t="n">
-        <v>155522.5785086619</v>
+        <v>155487.8405832265</v>
       </c>
       <c r="G6" t="n">
-        <v>155522.5785086622</v>
+        <v>155487.8405832263</v>
       </c>
       <c r="H6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="I6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="J6" t="n">
-        <v>-20900.64068393085</v>
+        <v>-20935.3786093666</v>
       </c>
       <c r="K6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832265</v>
       </c>
       <c r="L6" t="n">
-        <v>155522.5785086621</v>
+        <v>155487.8405832264</v>
       </c>
       <c r="M6" t="n">
-        <v>31314.06780060365</v>
+        <v>31279.32987516795</v>
       </c>
       <c r="N6" t="n">
-        <v>130578.3455285692</v>
+        <v>130578.3455285688</v>
       </c>
       <c r="O6" t="n">
-        <v>150006.0635222004</v>
+        <v>150006.0635222008</v>
       </c>
       <c r="P6" t="n">
-        <v>150006.0635222007</v>
+        <v>150006.0635222008</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.154340990610606e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,37 +26966,37 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>115.9311544556796</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>66.48838949091186</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>146.3264043234322</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.12559043031186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>388.81976697261</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2242097209981</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.3034376974245</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>151.242531418835</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>36.40122913405082</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>254.4407045692461</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>158.1694378896465</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>218.5768705613575</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>422.1299181110993</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>272.2616992568722</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>506.8613550004263</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>44.60637589638116</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>283.5755383312251</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,13 +35899,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010443</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36136,13 +36136,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
